--- a/data/hotels_by_city/Dallas/Dallas_shard_619.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_619.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,429 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r483666535-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>109697</t>
+  </si>
+  <si>
+    <t>483666535</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel needs a lot of help. Yes I understand that's it was under construction, but it felt like I was staying at a Motel 6, which was disappointing for a Choice Hotel brand. The beds were so hard that my back hurt for several days. The view was one of the roof &amp; A/C systems. The coffee in the breakfast area was so bad we tossed it. The only positive note is that it was clean. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r482091889-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>482091889</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Don't Stay Here</t>
+  </si>
+  <si>
+    <t>After  walking through an obvious construction area, the first room they put us in was ground floor and opened out onto the inner courtyard where a pool USED TO BE. It had a sliding glass patio door that had a broken lock, making the room insecure. Tub had a nasty old rubber mat and there was a large chunk of wadded up hair on the bathroom floor that greeted us on arrival. Overall condition of the room was run down and sub standard. After talking with the night manager (who alluded that the hotel was slated for destruction to make way for a new hotel) we were moved to another room-- at least the door locked. Again, sub standard with stained carpet that was ragged in areas. Smelled bad, too. No frig, either. Morning manager did not want to adjust our rate to account for lack of amenities or being inconvenienced.  We like staying at Quality Inns, however this one gives the rest of the brand a bad name. We've stayed at smaller properties that had a much better breakfast, too. Pictures on their site are misleading, as there is NO POOL OR JACUZZI!!! Will NEVER stay here again, and recommend you don't either.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>After  walking through an obvious construction area, the first room they put us in was ground floor and opened out onto the inner courtyard where a pool USED TO BE. It had a sliding glass patio door that had a broken lock, making the room insecure. Tub had a nasty old rubber mat and there was a large chunk of wadded up hair on the bathroom floor that greeted us on arrival. Overall condition of the room was run down and sub standard. After talking with the night manager (who alluded that the hotel was slated for destruction to make way for a new hotel) we were moved to another room-- at least the door locked. Again, sub standard with stained carpet that was ragged in areas. Smelled bad, too. No frig, either. Morning manager did not want to adjust our rate to account for lack of amenities or being inconvenienced.  We like staying at Quality Inns, however this one gives the rest of the brand a bad name. We've stayed at smaller properties that had a much better breakfast, too. Pictures on their site are misleading, as there is NO POOL OR JACUZZI!!! Will NEVER stay here again, and recommend you don't either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r476669925-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>476669925</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed a whole week NOT bad could be better! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is fairly new.  The housekeeping crew lacks communication probably because they speak NO ENGLISH!  At least that's what they claim!  Room was clean bed very uncomfortable.  Pet fee 10.00 daily and incidental deposit 10.00 daily.  Non smoking room only! Pretty quiet and peaceful place.  Will probably return to the hotel in the future. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r468117274-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>468117274</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Stay somewhere else</t>
+  </si>
+  <si>
+    <t>Yeah, that bad... it's cheap, the worker start before 8am and there is sleeping after that. Breakfast is included but milk was bad and they but it out anyway! Spend a few more dollars and go to a much better place!!! I thought it look good on the website should have checked the reviews here first. Don't make that mistake, on this place go somewhere else</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r463077115-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>463077115</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>Decent budget hotel</t>
+  </si>
+  <si>
+    <t>I liked this budget hotel. Clean, friendly staff. Nothing else that can be asked for from a budget hotel. They even allowed me late checkout. Breakfast was also good. The hotel is currently undergoing renovation so might be a bit of a trouble.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r461984249-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>461984249</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>family vacation</t>
+  </si>
+  <si>
+    <t>did not like hotel. booked online for a two bed room suite. they said they had it but the room was a two bed in the room. had bad smell through out the hotel and the elevators. the floors were dirty. no air in the halls or the elevators. breakfast area had tiles missing, carpet was dirty and tables were unstable. will not book again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r445403447-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>445403447</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>Come On Get Real !!</t>
+  </si>
+  <si>
+    <t>I had high hopes because they have construction going on, but jeez Louise. The room smelled dirty nothing you could put your finger on but ever present. Tried several times to call and get a wake up call but the phone was never answered. Now, let's talk about the bed, I mean if you have a pioneering spirit and want to sleep on something akin to plywood please be my guest. I will not be going back, I would rather sleep in my car&gt;</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r433812439-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>433812439</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised!</t>
+  </si>
+  <si>
+    <t>I felt I had to write this after seeing all the poor reviews for this hotel.I didn't see the reviews until after I had  booked a two night stay at this hotel.So I was a bit fearful going in. Yes there is construction going on at this hotel- and maybe was just lucky and got an updated room.   But overall I was pleasantly surprised.  The lobby is very nice for a budget priced hotel like this.  Personally I don't spend a lot of time in hotel lobbies, so this is not a huge factor for me.What is important to me is that my room was large, had a nice big flat screen, clean-up to date furnishings, working a/c and heat.  The front desk personnel were friendly.I am a road warrior, so I have logged a lot of time in all types of hotels.For a budget priced hotel I say this location is very nice.LoLaNJMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I felt I had to write this after seeing all the poor reviews for this hotel.I didn't see the reviews until after I had  booked a two night stay at this hotel.So I was a bit fearful going in. Yes there is construction going on at this hotel- and maybe was just lucky and got an updated room.   But overall I was pleasantly surprised.  The lobby is very nice for a budget priced hotel like this.  Personally I don't spend a lot of time in hotel lobbies, so this is not a huge factor for me.What is important to me is that my room was large, had a nice big flat screen, clean-up to date furnishings, working a/c and heat.  The front desk personnel were friendly.I am a road warrior, so I have logged a lot of time in all types of hotels.For a budget priced hotel I say this location is very nice.LoLaNJMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r422441159-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>422441159</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Extremely Outdated - Would Absolutely Not Stay There Again</t>
+  </si>
+  <si>
+    <t>My fiancé and I stayed one night at this hotel to reduce our commute time for the Plano Balloon Festival Half Marathon - never again. The hotel looks NOTHING like it does in pictures on the website. The nicest area is the lobby. Once you pass through the lobby to the hotel room area it's like you stepped back in time to the 80s. Extremely extremely outdated and dirty. We got a "king suite" and I'd hate to have seen what the regular rooms looked like because this room was terrible. I suppose what made it a suite was the small glass table and arm chair squeezed in the corner between the bed and the wall - and perhaps the mini fridge. There was black duct tape in place of carpet molding between the bathroom and bedroom, a huge poorly painted patch behind the arm chair and power strips next the beds and behind the television with extension cords to outlets. We never saw the restaurant open and the pool was closed per a sign posted on the entrance door. We could not check out of this hotel fast enough. Don't waste your money. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>My fiancé and I stayed one night at this hotel to reduce our commute time for the Plano Balloon Festival Half Marathon - never again. The hotel looks NOTHING like it does in pictures on the website. The nicest area is the lobby. Once you pass through the lobby to the hotel room area it's like you stepped back in time to the 80s. Extremely extremely outdated and dirty. We got a "king suite" and I'd hate to have seen what the regular rooms looked like because this room was terrible. I suppose what made it a suite was the small glass table and arm chair squeezed in the corner between the bed and the wall - and perhaps the mini fridge. There was black duct tape in place of carpet molding between the bathroom and bedroom, a huge poorly painted patch behind the arm chair and power strips next the beds and behind the television with extension cords to outlets. We never saw the restaurant open and the pool was closed per a sign posted on the entrance door. We could not check out of this hotel fast enough. Don't waste your money. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r408778950-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>408778950</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Had better Stays...</t>
+  </si>
+  <si>
+    <t>Had a lot of construction going on, which is fine but they were remodeling the room above us, which made it difficult to relax. Wouldnt move us to another room. Management is not to friendly, which stinks because it could be a great hotel.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r390252927-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>390252927</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Don't bothet</t>
+  </si>
+  <si>
+    <t>I guess I'm a hotel snob: I want to stay in a place that's safe, clean, and reputable. But, we could tell that none of those adjectives applied to this hotel. This hotel needs a complete overhaul. Even my 10 year old niece said, "This place looks sketchy."I would avoid any hotels in this area, and don't use Bookings.com. Tried to cancel a reservation made within 10 minutes of realizing the property was below standard and was still charged a penalty.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r389348224-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>389348224</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Under new management</t>
+  </si>
+  <si>
+    <t>This place was pretty good. Seems like a slightly run down area and the hotel shows it,  but the management is working on it and looks like it things will get better over time. No major complaints. Room was clean and staff was nice. Free breakfast was good, but has room for improvement. Short walk or shorter drive to downtown Plano.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r380063943-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>380063943</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Dallas 2015</t>
+  </si>
+  <si>
+    <t>Good, clean hotel.  Nice food.  We stayed in the JR Ewing Suite, which has the biggest bed I've ever seen!!!!!  Staff were friendly and helpful.  It is near a very busy road, but we didn't hear any traffic noise, even when out at the swimming pool.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r371577537-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>371577537</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Think twice.</t>
+  </si>
+  <si>
+    <t>While in the past this was a quality location it is now under new management.  Perhaps they are in the process of revamping but now it's under construction.  No smoking hotel.  They do allow pets.  They serve a decent hot breakfast.  I had ants in my room, which is better than bed bugs but they didn't spay or move me.  I did get my rate reduced at checkout.  It wasn't a manifestation by any means but since I didn't know if they were fire ants I didn't want to take the chance.If you're looking for a decent bed, slow internet, hot breakfast, no gift shop and no shuttle service with easy access to the interstate then it's an option.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>While in the past this was a quality location it is now under new management.  Perhaps they are in the process of revamping but now it's under construction.  No smoking hotel.  They do allow pets.  They serve a decent hot breakfast.  I had ants in my room, which is better than bed bugs but they didn't spay or move me.  I did get my rate reduced at checkout.  It wasn't a manifestation by any means but since I didn't know if they were fire ants I didn't want to take the chance.If you're looking for a decent bed, slow internet, hot breakfast, no gift shop and no shuttle service with easy access to the interstate then it's an option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r371325582-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>371325582</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>Noisy room</t>
+  </si>
+  <si>
+    <t>Our room was on the third floor, looking down at the front of the hotel. The traffic from the freeway was noisy every night - up to midnight. The room was clean, but I can feel the spring in my mattress. We did not get a refrigrertator and one was supposed to be in our room. It was straightened out and we got one delivered after twin days. The wifi quality was bad and the printer did not work in the by subsets center,</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r365778136-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>365778136</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Renovations being made, but good service and stay</t>
+  </si>
+  <si>
+    <t>This hotel has a very friendly and accommodating staff.  The property overall could use a bit of an update and cleaning, but it appeared that they were in the process of doing just that during our stay.  The wifi could be a bit better.  For the most part, we enjoyed our stay here and had no issues.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r357317832-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>357317832</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Total rip off</t>
+  </si>
+  <si>
+    <t>Just left this hotel. It's run down and disgusting. Front desk clerk tries to change the room rate from what he quoted over the phone. The place is a pig pen. this is a hotel prices like other budget hotels but far worse. Quality inn choice hotels should think twice about licensing this place. No QUALITY here folks</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r351687073-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>351687073</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>Run down</t>
+  </si>
+  <si>
+    <t>This hotel mainly has interest to people who grew up watching TV shows of "Dallas." Rooms are tired and service in the restaurant is uninspired. Not a particularly good value. Located right near the freeway, and it's easy to find.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r336346921-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>336346921</t>
+  </si>
+  <si>
+    <t>12/31/2015</t>
+  </si>
+  <si>
+    <t>Keep looking!</t>
+  </si>
+  <si>
+    <t>We have stayed here a few ri.es before and loved it. True enough the place was a little dated but good for the price. We live in Fort Worth and have family here in Plano. On holidays  we stay here to keep from having g to drive home so late. They are now under new management it smells. The staff is not very groomed and last but not least we were in the room for about 30 minutes when getting ready to get in bed we found a bedbug crawling across my pillow. Needless to say at 3:30a we went to get a refund and had to drive back to Fort Worth. Will never stay here again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>We have stayed here a few ri.es before and loved it. True enough the place was a little dated but good for the price. We live in Fort Worth and have family here in Plano. On holidays  we stay here to keep from having g to drive home so late. They are now under new management it smells. The staff is not very groomed and last but not least we were in the room for about 30 minutes when getting ready to get in bed we found a bedbug crawling across my pillow. Needless to say at 3:30a we went to get a refund and had to drive back to Fort Worth. Will never stay here again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r335578794-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>335578794</t>
+  </si>
+  <si>
+    <t>12/28/2015</t>
+  </si>
+  <si>
+    <t>Nice for getaway</t>
+  </si>
+  <si>
+    <t>Spend Valentine's Day and did the package that included a tour of Southfork Ranch.  It was a lot of fun.  The shuttle service allowed us to go out and not worry about driving, and our driver was friendly and informative.  I would return.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r334150794-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>334150794</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Reduced Price Good Deal to stay over</t>
+  </si>
+  <si>
+    <t>I think the Hotel Management has been  changed  They have reduced price I think Its a good Deal to stay over there and the rooms are good.  The staff are Helpful and friendly.  The only concerned thing is the Restaurant and Bar is closed . But some how  I found a Bar Near by</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r329756894-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>329756894</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Dissapointed</t>
+  </si>
+  <si>
+    <t>This place has gone down hill.We first came here in 2010 and this hotel was great.We just came here again in 2015 and the difference from before is horrible.please do not stay here you would be better off staying somewhere else.Not worth the money we spent,came home one night earlier and lost our money,they were very rude and the room was dirty.there was no dining, bar,nothing and no other customers,very strange will never stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r327710700-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>327710700</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>Keep lookin</t>
+  </si>
+  <si>
+    <t>This place was OK but could have been so much better.  The staff had no pride in their work, the carpet in the hall was mended with duct tape, it looked really dated.  It also a huge place best suited for conventions and large groups, so single-party travelers get lost in the hubbub.   There are so many hotels in the Dallas / Plano area... you could do better by looking elsewhere.</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1068,1363 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O19" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>161</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s">
+        <v>166</v>
+      </c>
+      <c r="L21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" t="s">
+        <v>172</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>155</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" t="s">
+        <v>181</v>
+      </c>
+      <c r="K24" t="s">
+        <v>182</v>
+      </c>
+      <c r="L24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>155</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_619.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_619.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Candy M</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Crystal C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r482091889-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>After  walking through an obvious construction area, the first room they put us in was ground floor and opened out onto the inner courtyard where a pool USED TO BE. It had a sliding glass patio door that had a broken lock, making the room insecure. Tub had a nasty old rubber mat and there was a large chunk of wadded up hair on the bathroom floor that greeted us on arrival. Overall condition of the room was run down and sub standard. After talking with the night manager (who alluded that the hotel was slated for destruction to make way for a new hotel) we were moved to another room-- at least the door locked. Again, sub standard with stained carpet that was ragged in areas. Smelled bad, too. No frig, either. Morning manager did not want to adjust our rate to account for lack of amenities or being inconvenienced.  We like staying at Quality Inns, however this one gives the rest of the brand a bad name. We've stayed at smaller properties that had a much better breakfast, too. Pictures on their site are misleading, as there is NO POOL OR JACUZZI!!! Will NEVER stay here again, and recommend you don't either.More</t>
   </si>
   <si>
+    <t>jerseygirl6954</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r476669925-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t xml:space="preserve">This hotel is fairly new.  The housekeeping crew lacks communication probably because they speak NO ENGLISH!  At least that's what they claim!  Room was clean bed very uncomfortable.  Pet fee 10.00 daily and incidental deposit 10.00 daily.  Non smoking room only! Pretty quiet and peaceful place.  Will probably return to the hotel in the future. </t>
   </si>
   <si>
+    <t>Rayin13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r468117274-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>LoneTraveller2k15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r463077115-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>momofinfant</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r461984249-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -267,6 +285,9 @@
     <t>did not like hotel. booked online for a two bed room suite. they said they had it but the room was a two bed in the room. had bad smell through out the hotel and the elevators. the floors were dirty. no air in the halls or the elevators. breakfast area had tiles missing, carpet was dirty and tables were unstable. will not book again.</t>
   </si>
   <si>
+    <t>717trishab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r445403447-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -288,6 +309,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>LoLaNJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r433812439-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -312,6 +336,9 @@
     <t>I felt I had to write this after seeing all the poor reviews for this hotel.I didn't see the reviews until after I had  booked a two night stay at this hotel.So I was a bit fearful going in. Yes there is construction going on at this hotel- and maybe was just lucky and got an updated room.   But overall I was pleasantly surprised.  The lobby is very nice for a budget priced hotel like this.  Personally I don't spend a lot of time in hotel lobbies, so this is not a huge factor for me.What is important to me is that my room was large, had a nice big flat screen, clean-up to date furnishings, working a/c and heat.  The front desk personnel were friendly.I am a road warrior, so I have logged a lot of time in all types of hotels.For a budget priced hotel I say this location is very nice.LoLaNJMore</t>
   </si>
   <si>
+    <t>Krissy027</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r422441159-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -333,6 +360,9 @@
     <t>My fiancé and I stayed one night at this hotel to reduce our commute time for the Plano Balloon Festival Half Marathon - never again. The hotel looks NOTHING like it does in pictures on the website. The nicest area is the lobby. Once you pass through the lobby to the hotel room area it's like you stepped back in time to the 80s. Extremely extremely outdated and dirty. We got a "king suite" and I'd hate to have seen what the regular rooms looked like because this room was terrible. I suppose what made it a suite was the small glass table and arm chair squeezed in the corner between the bed and the wall - and perhaps the mini fridge. There was black duct tape in place of carpet molding between the bathroom and bedroom, a huge poorly painted patch behind the arm chair and power strips next the beds and behind the television with extension cords to outlets. We never saw the restaurant open and the pool was closed per a sign posted on the entrance door. We could not check out of this hotel fast enough. Don't waste your money. More</t>
   </si>
   <si>
+    <t>Adam D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r408778950-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -351,6 +381,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>readergirl1228</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r390252927-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -369,6 +402,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>ostokes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r389348224-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -384,6 +420,9 @@
     <t>This place was pretty good. Seems like a slightly run down area and the hotel shows it,  but the management is working on it and looks like it things will get better over time. No major complaints. Room was clean and staff was nice. Free breakfast was good, but has room for improvement. Short walk or shorter drive to downtown Plano.</t>
   </si>
   <si>
+    <t>J M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r380063943-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -399,6 +438,9 @@
     <t>Good, clean hotel.  Nice food.  We stayed in the JR Ewing Suite, which has the biggest bed I've ever seen!!!!!  Staff were friendly and helpful.  It is near a very busy road, but we didn't hear any traffic noise, even when out at the swimming pool.</t>
   </si>
   <si>
+    <t>msadvisor2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r371577537-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -420,6 +462,9 @@
     <t>While in the past this was a quality location it is now under new management.  Perhaps they are in the process of revamping but now it's under construction.  No smoking hotel.  They do allow pets.  They serve a decent hot breakfast.  I had ants in my room, which is better than bed bugs but they didn't spay or move me.  I did get my rate reduced at checkout.  It wasn't a manifestation by any means but since I didn't know if they were fire ants I didn't want to take the chance.If you're looking for a decent bed, slow internet, hot breakfast, no gift shop and no shuttle service with easy access to the interstate then it's an option.More</t>
   </si>
   <si>
+    <t>Connie I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r371325582-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -435,6 +480,9 @@
     <t>Our room was on the third floor, looking down at the front of the hotel. The traffic from the freeway was noisy every night - up to midnight. The room was clean, but I can feel the spring in my mattress. We did not get a refrigrertator and one was supposed to be in our room. It was straightened out and we got one delivered after twin days. The wifi quality was bad and the printer did not work in the by subsets center,</t>
   </si>
   <si>
+    <t>Jeff_Fisher_CA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r365778136-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -453,6 +501,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Edward L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r357317832-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -468,6 +519,9 @@
     <t>Just left this hotel. It's run down and disgusting. Front desk clerk tries to change the room rate from what he quoted over the phone. The place is a pig pen. this is a hotel prices like other budget hotels but far worse. Quality inn choice hotels should think twice about licensing this place. No QUALITY here folks</t>
   </si>
   <si>
+    <t>ZhongguoKM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r351687073-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -486,6 +540,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Teneasha M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r336346921-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -507,6 +564,9 @@
     <t>We have stayed here a few ri.es before and loved it. True enough the place was a little dated but good for the price. We live in Fort Worth and have family here in Plano. On holidays  we stay here to keep from having g to drive home so late. They are now under new management it smells. The staff is not very groomed and last but not least we were in the room for about 30 minutes when getting ready to get in bed we found a bedbug crawling across my pillow. Needless to say at 3:30a we went to get a refund and had to drive back to Fort Worth. Will never stay here again!!!More</t>
   </si>
   <si>
+    <t>smcgee36</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r335578794-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -522,6 +582,9 @@
     <t>Spend Valentine's Day and did the package that included a tour of Southfork Ranch.  It was a lot of fun.  The shuttle service allowed us to go out and not worry about driving, and our driver was friendly and informative.  I would return.</t>
   </si>
   <si>
+    <t>Sam d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r334150794-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -540,6 +603,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Lori B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r329756894-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -553,6 +619,9 @@
   </si>
   <si>
     <t>This place has gone down hill.We first came here in 2010 and this hotel was great.We just came here again in 2015 and the difference from before is horrible.please do not stay here you would be better off staying somewhere else.Not worth the money we spent,came home one night earlier and lost our money,they were very rude and the room was dirty.there was no dining, bar,nothing and no other customers,very strange will never stay here again.</t>
+  </si>
+  <si>
+    <t>Makayla B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r327710700-Quality_Inn_Suites-Plano_Texas.html</t>
@@ -1072,43 +1141,47 @@
       <c r="A2" t="n">
         <v>20972</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>19786</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1122,50 +1195,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>20972</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>25779</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1185,50 +1262,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>20972</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>174019</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1242,50 +1323,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>20972</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>174020</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1299,50 +1384,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>20972</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>174021</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1362,41 +1451,45 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>20972</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>174022</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
@@ -1415,50 +1508,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>20972</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>174023</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1476,50 +1573,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>20972</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>174024</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1537,50 +1638,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>20972</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>174025</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1594,50 +1699,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>20972</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>68876</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -1657,50 +1766,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>20972</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>174026</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1714,50 +1827,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>20972</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>174027</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1771,41 +1888,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>20972</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>11667</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
@@ -1824,50 +1945,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>20972</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>174028</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -1887,50 +2012,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>20972</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>44875</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -1948,50 +2077,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>20972</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>174029</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2009,50 +2142,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>20972</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>26740</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="O18" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2066,50 +2203,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>20972</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>174030</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2123,50 +2264,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>20972</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>174031</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2180,41 +2325,45 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20972</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>174032</v>
+      </c>
+      <c r="C21" t="s">
+        <v>182</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="J21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
@@ -2233,50 +2382,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>20972</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>174033</v>
+      </c>
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="O22" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -2296,50 +2449,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>20972</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>2124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>195</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="J23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="K23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -2359,50 +2516,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>20972</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>174034</v>
+      </c>
+      <c r="C24" t="s">
+        <v>201</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="J24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -2422,7 +2583,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_619.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_619.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,93 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Candy M</t>
-  </si>
-  <si>
-    <t>06/16/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r609856714-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>109697</t>
+  </si>
+  <si>
+    <t>609856714</t>
+  </si>
+  <si>
+    <t>08/24/2018</t>
+  </si>
+  <si>
+    <t>Hospital stay</t>
+  </si>
+  <si>
+    <t>This was convenient, and great. The staff was very nice, and friendly. The room temperature was nice. The only problem I had was signing into the WIFI. But That was ok since we were leaving the next morning as my husband was having surgery.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r598534613-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>598534613</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glad I gave it a Chance </t>
+  </si>
+  <si>
+    <t>When reading the reviews I was very skeptical and didn't want to stay here.  However, seeing that the majority of the dates were from over a year ago and that there had been some recent renovations to hotel, we decided to give it a chance.  I was pleasantly surprised, by the hotel and our room. The room and bathrooms were very nice, and most importantly clean!.  The staff was friendly and very accommodating. I will stay here again and would recommend this hotel to all.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r568496128-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>568496128</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>On Low End Of Quality Inn</t>
+  </si>
+  <si>
+    <t>There isn't an elevator so don't get a upper floor if you have difficulty with stairs or too much luggage, as was our case.  There are interior halls and room entry doors.  The renovation construction that other reviewers mention is complete. Our room was OK but a little small with a tiny bathroom, barely room to use toilet and very little counter space.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r542100122-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>542100122</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>Dark and Gloomy</t>
+  </si>
+  <si>
+    <t>After checking in we got on the elevator and when we got to the hallway it remind me of American Horror Story the one were they were in the  hotel it was very dark and very creepy. When we got into our room the bathtub had mud in it. And the AC did not work so the room was hot the entire night a very very uncomfortable stay. And yes front desk was notified and nothing happened. Would not recommend this place at all</t>
+  </si>
+  <si>
+    <t>November 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r483666535-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
-    <t>56463</t>
-  </si>
-  <si>
-    <t>109697</t>
-  </si>
-  <si>
     <t>483666535</t>
   </si>
   <si>
@@ -177,12 +249,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Crystal C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r482091889-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -201,15 +267,9 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>After  walking through an obvious construction area, the first room they put us in was ground floor and opened out onto the inner courtyard where a pool USED TO BE. It had a sliding glass patio door that had a broken lock, making the room insecure. Tub had a nasty old rubber mat and there was a large chunk of wadded up hair on the bathroom floor that greeted us on arrival. Overall condition of the room was run down and sub standard. After talking with the night manager (who alluded that the hotel was slated for destruction to make way for a new hotel) we were moved to another room-- at least the door locked. Again, sub standard with stained carpet that was ragged in areas. Smelled bad, too. No frig, either. Morning manager did not want to adjust our rate to account for lack of amenities or being inconvenienced.  We like staying at Quality Inns, however this one gives the rest of the brand a bad name. We've stayed at smaller properties that had a much better breakfast, too. Pictures on their site are misleading, as there is NO POOL OR JACUZZI!!! Will NEVER stay here again, and recommend you don't either.More</t>
   </si>
   <si>
-    <t>jerseygirl6954</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r476669925-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -225,7 +285,37 @@
     <t xml:space="preserve">This hotel is fairly new.  The housekeeping crew lacks communication probably because they speak NO ENGLISH!  At least that's what they claim!  Room was clean bed very uncomfortable.  Pet fee 10.00 daily and incidental deposit 10.00 daily.  Non smoking room only! Pretty quiet and peaceful place.  Will probably return to the hotel in the future. </t>
   </si>
   <si>
-    <t>Rayin13</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r472528119-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>472528119</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>I won't stay there again</t>
+  </si>
+  <si>
+    <t>The 1st room they put us in was musky and smelled like a heavy smoker had been there. They put us in a different room which was better but we could only get a few local channels and when I asked, they acted like I didn't know how to operate a tv! It just wasn't a good experience for me. The rates weren't to bad but I'll look around for something else next time I visit</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r472151049-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>472151049</t>
+  </si>
+  <si>
+    <t>04/02/2017</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was pretty good. It looks like it's under some type of renovations but otherwise it was nice. The pool area is under construction. The beds were comfortable and the room was very clean. No complaints. Breakfast was very good. The hotel is also pretty big. Price was just right. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r468117274-Quality_Inn_Suites-Plano_Texas.html</t>
@@ -246,9 +336,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>LoneTraveller2k15</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r463077115-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -267,9 +354,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t>momofinfant</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r461984249-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -285,7 +369,46 @@
     <t>did not like hotel. booked online for a two bed room suite. they said they had it but the room was a two bed in the room. had bad smell through out the hotel and the elevators. the floors were dirty. no air in the halls or the elevators. breakfast area had tiles missing, carpet was dirty and tables were unstable. will not book again.</t>
   </si>
   <si>
-    <t>717trishab</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r454608971-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>454608971</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Quiet,clean, reasonable, nice breakfast included and friendly staff.</t>
+  </si>
+  <si>
+    <t>I had just flown over 12 hours and I had decided to do a stopover before flying any more. This was a super good decision for me - I arrived about 9 pm and the shuttle bus came and picked me up after a 20 min. wait, ( I had not booked the Shuttle in advance - which would probably be a good idea!). I had a nice, quiet room and it was soooo great to have a hot shower and a big, clean bed. I slept right through the night and loved having time to have a nice, relaxed breakfast and not have to stress to catch my plane.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I had just flown over 12 hours and I had decided to do a stopover before flying any more. This was a super good decision for me - I arrived about 9 pm and the shuttle bus came and picked me up after a 20 min. wait, ( I had not booked the Shuttle in advance - which would probably be a good idea!). I had a nice, quiet room and it was soooo great to have a hot shower and a big, clean bed. I slept right through the night and loved having time to have a nice, relaxed breakfast and not have to stress to catch my plane.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r451862279-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>451862279</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t>Not so bad</t>
+  </si>
+  <si>
+    <t>The hotel is in need of a major renovation but it was fine for the 1 night I needed to stay. The only thing that bothered me was the elevator. It moved at turtle speed. The gentleman at the front desk was very pleasant. Hotel and room were clean. Breakfast was decent.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r445403447-Quality_Inn_Suites-Plano_Texas.html</t>
@@ -306,12 +429,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>LoLaNJ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r433812439-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -336,9 +453,6 @@
     <t>I felt I had to write this after seeing all the poor reviews for this hotel.I didn't see the reviews until after I had  booked a two night stay at this hotel.So I was a bit fearful going in. Yes there is construction going on at this hotel- and maybe was just lucky and got an updated room.   But overall I was pleasantly surprised.  The lobby is very nice for a budget priced hotel like this.  Personally I don't spend a lot of time in hotel lobbies, so this is not a huge factor for me.What is important to me is that my room was large, had a nice big flat screen, clean-up to date furnishings, working a/c and heat.  The front desk personnel were friendly.I am a road warrior, so I have logged a lot of time in all types of hotels.For a budget priced hotel I say this location is very nice.LoLaNJMore</t>
   </si>
   <si>
-    <t>Krissy027</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r422441159-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -360,7 +474,37 @@
     <t>My fiancé and I stayed one night at this hotel to reduce our commute time for the Plano Balloon Festival Half Marathon - never again. The hotel looks NOTHING like it does in pictures on the website. The nicest area is the lobby. Once you pass through the lobby to the hotel room area it's like you stepped back in time to the 80s. Extremely extremely outdated and dirty. We got a "king suite" and I'd hate to have seen what the regular rooms looked like because this room was terrible. I suppose what made it a suite was the small glass table and arm chair squeezed in the corner between the bed and the wall - and perhaps the mini fridge. There was black duct tape in place of carpet molding between the bathroom and bedroom, a huge poorly painted patch behind the arm chair and power strips next the beds and behind the television with extension cords to outlets. We never saw the restaurant open and the pool was closed per a sign posted on the entrance door. We could not check out of this hotel fast enough. Don't waste your money. More</t>
   </si>
   <si>
-    <t>Adam D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r419912920-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>419912920</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>HOT!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rooms were average, the breakfast was ok but gee was it hot in there. The ac was broken and being in plano the humidity was unreal needless to say the experience was not pleasant. The pool was closed and the vending machine didnt accept cash. We will not be staying here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r415150756-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>415150756</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>NEVER SO GLAD TO LEAVE</t>
+  </si>
+  <si>
+    <t>We arrived late after driving 12 hours. Just wanted a place to stay for the night. When we arrived, the parking lot was packed and the lobby was filled with yelling children. I said to me wife, this is not going to be a nice place to stay. The register clerk overheard me and grimaced. The first thing I noticed is this is more of a two story motel then a more modern quality inn which is more of a hotel style. It does not appear to me that there is a lot that goes into maintenance of this facility. The outside walkways really could use a good power washing. We were assigned room 228. The room pretty standard with a nice size fridge. The king size bed was firm and moderately comfortable. The bathroom sink is off the main room with a large vanity. The bathroom was the worst. The tub was pealing with a large section of covering missing. The wall behind the bathroom door was punched in by the doorknob. What caused us to get a bad night sleep was the fire alarm which went off 3 different times starting at 1:45. Now I realize this is not the hotel’s fault, but I am pissed and tired, and never so glad to leave. When we were checking out, we overheard another guest complaining of crickets in there room and not sleeping well also. I stopped into the...We arrived late after driving 12 hours. Just wanted a place to stay for the night. When we arrived, the parking lot was packed and the lobby was filled with yelling children. I said to me wife, this is not going to be a nice place to stay. The register clerk overheard me and grimaced. The first thing I noticed is this is more of a two story motel then a more modern quality inn which is more of a hotel style. It does not appear to me that there is a lot that goes into maintenance of this facility. The outside walkways really could use a good power washing. We were assigned room 228. The room pretty standard with a nice size fridge. The king size bed was firm and moderately comfortable. The bathroom sink is off the main room with a large vanity. The bathroom was the worst. The tub was pealing with a large section of covering missing. The wall behind the bathroom door was punched in by the doorknob. What caused us to get a bad night sleep was the fire alarm which went off 3 different times starting at 1:45. Now I realize this is not the hotel’s fault, but I am pissed and tired, and never so glad to leave. When we were checking out, we overheard another guest complaining of crickets in there room and not sleeping well also. I stopped into the men’s room in the lobby area and the toilets were stopped up and the whole place was trashed. I mentioned this to the desk clerk, and he pretty much shrugged it off as “I don’t give a S#!&amp;” I would strongly discourage anyone from staying at this facilityMoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived late after driving 12 hours. Just wanted a place to stay for the night. When we arrived, the parking lot was packed and the lobby was filled with yelling children. I said to me wife, this is not going to be a nice place to stay. The register clerk overheard me and grimaced. The first thing I noticed is this is more of a two story motel then a more modern quality inn which is more of a hotel style. It does not appear to me that there is a lot that goes into maintenance of this facility. The outside walkways really could use a good power washing. We were assigned room 228. The room pretty standard with a nice size fridge. The king size bed was firm and moderately comfortable. The bathroom sink is off the main room with a large vanity. The bathroom was the worst. The tub was pealing with a large section of covering missing. The wall behind the bathroom door was punched in by the doorknob. What caused us to get a bad night sleep was the fire alarm which went off 3 different times starting at 1:45. Now I realize this is not the hotel’s fault, but I am pissed and tired, and never so glad to leave. When we were checking out, we overheard another guest complaining of crickets in there room and not sleeping well also. I stopped into the...We arrived late after driving 12 hours. Just wanted a place to stay for the night. When we arrived, the parking lot was packed and the lobby was filled with yelling children. I said to me wife, this is not going to be a nice place to stay. The register clerk overheard me and grimaced. The first thing I noticed is this is more of a two story motel then a more modern quality inn which is more of a hotel style. It does not appear to me that there is a lot that goes into maintenance of this facility. The outside walkways really could use a good power washing. We were assigned room 228. The room pretty standard with a nice size fridge. The king size bed was firm and moderately comfortable. The bathroom sink is off the main room with a large vanity. The bathroom was the worst. The tub was pealing with a large section of covering missing. The wall behind the bathroom door was punched in by the doorknob. What caused us to get a bad night sleep was the fire alarm which went off 3 different times starting at 1:45. Now I realize this is not the hotel’s fault, but I am pissed and tired, and never so glad to leave. When we were checking out, we overheard another guest complaining of crickets in there room and not sleeping well also. I stopped into the men’s room in the lobby area and the toilets were stopped up and the whole place was trashed. I mentioned this to the desk clerk, and he pretty much shrugged it off as “I don’t give a S#!&amp;” I would strongly discourage anyone from staying at this facilityMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r408778950-Quality_Inn_Suites-Plano_Texas.html</t>
@@ -381,9 +525,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>readergirl1228</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r390252927-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -402,9 +543,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>ostokes</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r389348224-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -420,7 +558,40 @@
     <t>This place was pretty good. Seems like a slightly run down area and the hotel shows it,  but the management is working on it and looks like it things will get better over time. No major complaints. Room was clean and staff was nice. Free breakfast was good, but has room for improvement. Short walk or shorter drive to downtown Plano.</t>
   </si>
   <si>
-    <t>J M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r382186659-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>382186659</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Worst ever!</t>
+  </si>
+  <si>
+    <t>Under complete renovation! All amenities were closed and hotel was filthy with construction debris throughout the hotel. Stayed for 30 minutes and that was ONLY because the hotel clerk had abandoned the desk for 20 minutes! When I complained about the condition and amenities being closed the clerk picked up a piece of paper that was laying on my desk and waived it in my face stating that it was written notice that the hotel was under renovation. They refused to give me a refund or cancel my credit card transaction which still wasn't enough reason for me to keep my family there. If you want a filthy hotel and terrible customer service then this is the place to go!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Under complete renovation! All amenities were closed and hotel was filthy with construction debris throughout the hotel. Stayed for 30 minutes and that was ONLY because the hotel clerk had abandoned the desk for 20 minutes! When I complained about the condition and amenities being closed the clerk picked up a piece of paper that was laying on my desk and waived it in my face stating that it was written notice that the hotel was under renovation. They refused to give me a refund or cancel my credit card transaction which still wasn't enough reason for me to keep my family there. If you want a filthy hotel and terrible customer service then this is the place to go!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r381995274-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>381995274</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Don't waste your $</t>
+  </si>
+  <si>
+    <t>Hotel is not ready for guest. Red Ants in bed. Moved to diff. room with stale smell (dirty carpet/AC filter). TV poor reception/sound.Closet doors jammed. No AC in corridors. Breakfast was just below par. No lounge/bar.I will never stay again.1 Star category in my opinion.Stayed 3 nights for HS Graduation and visit with friends.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r380063943-Quality_Inn_Suites-Plano_Texas.html</t>
@@ -438,9 +609,6 @@
     <t>Good, clean hotel.  Nice food.  We stayed in the JR Ewing Suite, which has the biggest bed I've ever seen!!!!!  Staff were friendly and helpful.  It is near a very busy road, but we didn't hear any traffic noise, even when out at the swimming pool.</t>
   </si>
   <si>
-    <t>msadvisor2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r371577537-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -462,9 +630,6 @@
     <t>While in the past this was a quality location it is now under new management.  Perhaps they are in the process of revamping but now it's under construction.  No smoking hotel.  They do allow pets.  They serve a decent hot breakfast.  I had ants in my room, which is better than bed bugs but they didn't spay or move me.  I did get my rate reduced at checkout.  It wasn't a manifestation by any means but since I didn't know if they were fire ants I didn't want to take the chance.If you're looking for a decent bed, slow internet, hot breakfast, no gift shop and no shuttle service with easy access to the interstate then it's an option.More</t>
   </si>
   <si>
-    <t>Connie I</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r371325582-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -480,7 +645,37 @@
     <t>Our room was on the third floor, looking down at the front of the hotel. The traffic from the freeway was noisy every night - up to midnight. The room was clean, but I can feel the spring in my mattress. We did not get a refrigrertator and one was supposed to be in our room. It was straightened out and we got one delivered after twin days. The wifi quality was bad and the printer did not work in the by subsets center,</t>
   </si>
   <si>
-    <t>Jeff_Fisher_CA</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r371220018-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>371220018</t>
+  </si>
+  <si>
+    <t>You're not in Southfork anymore</t>
+  </si>
+  <si>
+    <t>The Southfork Hotel underwent a management change not that long ago, rendering it a (lack of) Quality Inn. I stayed there to attend a conference at the Southfork Ranch, which is actually 15 minutes away in Parker, and the two properties are no longer affiliated. I took the train from Dallas, which dropped me off in charming historic downtown Plano. The 10-minute walk to the hotel, however, provided a tour of the proverbial wrong side of the tracks, replete with winos, potholes and body shops. My first view of the hotel was an empty cigarette-butt and trash strewn parking lot. Inside was cleaner, but worn out. The room was surprisingly large with a comfortable bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Southfork Hotel underwent a management change not that long ago, rendering it a (lack of) Quality Inn. I stayed there to attend a conference at the Southfork Ranch, which is actually 15 minutes away in Parker, and the two properties are no longer affiliated. I took the train from Dallas, which dropped me off in charming historic downtown Plano. The 10-minute walk to the hotel, however, provided a tour of the proverbial wrong side of the tracks, replete with winos, potholes and body shops. My first view of the hotel was an empty cigarette-butt and trash strewn parking lot. Inside was cleaner, but worn out. The room was surprisingly large with a comfortable bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r366575205-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>366575205</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>The hotel is very run down but under renovation. The biggest issues I had was service; front desk slow and not very customer friendly. Breakfast buffet replenishment slow and items ran out quickly.Hotel is near a busy highway and oozes of the long gone past.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r365778136-Quality_Inn_Suites-Plano_Texas.html</t>
@@ -501,9 +696,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Edward L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r357317832-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -519,9 +711,6 @@
     <t>Just left this hotel. It's run down and disgusting. Front desk clerk tries to change the room rate from what he quoted over the phone. The place is a pig pen. this is a hotel prices like other budget hotels but far worse. Quality inn choice hotels should think twice about licensing this place. No QUALITY here folks</t>
   </si>
   <si>
-    <t>ZhongguoKM</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r351687073-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -540,7 +729,43 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>Teneasha M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r348321968-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>348321968</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>stayed there this weekend, fantastic!</t>
+  </si>
+  <si>
+    <t>As others have mentioned, this hotel recently changed management and is now a Quality Inn.The previous hotel had mixed reviews, but I stayed there this weekend (2/14) and it was fantastic. The rate was very reasonable, the room was very clean, there was a iron and ironing board, a small refrigerator, and all the usual stuff.They served breakfast which was very good. Most hotels serve a few items, but they had eggs, sausage, an assortment of yogurts, fruits, and cereals, waffles, muffins, and a couple of other things, along with a choice of several beverages.I would definitely stay there again, and plan to when I go back to Dallas in a couple of months.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>As others have mentioned, this hotel recently changed management and is now a Quality Inn.The previous hotel had mixed reviews, but I stayed there this weekend (2/14) and it was fantastic. The rate was very reasonable, the room was very clean, there was a iron and ironing board, a small refrigerator, and all the usual stuff.They served breakfast which was very good. Most hotels serve a few items, but they had eggs, sausage, an assortment of yogurts, fruits, and cereals, waffles, muffins, and a couple of other things, along with a choice of several beverages.I would definitely stay there again, and plan to when I go back to Dallas in a couple of months.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r341174629-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>341174629</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>Good value hotel in convenient location</t>
+  </si>
+  <si>
+    <t>This hotel just changed management and became a Quality Inn.  The previous hotel had very mixed reviews but my stay was fine.  The facility has some age and could use some updates, but it served our needs at a bargain price.  The staff is very friendly and attentive.  I was pleasantly surprised by the breakfast, which was better than expected including hot food and waffles, plus excellent coffee.  Room was clean and had a very good shower with plenty of hot water.  My only complaint was the loud heater unit in the room, which was necessary due to cold temperatures in January.    Other than that I'm quite satisfied.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r336346921-Quality_Inn_Suites-Plano_Texas.html</t>
@@ -558,15 +783,9 @@
     <t>We have stayed here a few ri.es before and loved it. True enough the place was a little dated but good for the price. We live in Fort Worth and have family here in Plano. On holidays  we stay here to keep from having g to drive home so late. They are now under new management it smells. The staff is not very groomed and last but not least we were in the room for about 30 minutes when getting ready to get in bed we found a bedbug crawling across my pillow. Needless to say at 3:30a we went to get a refund and had to drive back to Fort Worth. Will never stay here again!!!MoreShow less</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
     <t>We have stayed here a few ri.es before and loved it. True enough the place was a little dated but good for the price. We live in Fort Worth and have family here in Plano. On holidays  we stay here to keep from having g to drive home so late. They are now under new management it smells. The staff is not very groomed and last but not least we were in the room for about 30 minutes when getting ready to get in bed we found a bedbug crawling across my pillow. Needless to say at 3:30a we went to get a refund and had to drive back to Fort Worth. Will never stay here again!!!More</t>
   </si>
   <si>
-    <t>smcgee36</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r335578794-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -582,9 +801,6 @@
     <t>Spend Valentine's Day and did the package that included a tour of Southfork Ranch.  It was a lot of fun.  The shuttle service allowed us to go out and not worry about driving, and our driver was friendly and informative.  I would return.</t>
   </si>
   <si>
-    <t>Sam d</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r334150794-Quality_Inn_Suites-Plano_Texas.html</t>
   </si>
   <si>
@@ -603,7 +819,34 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>Lori B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r330420933-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>330420933</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>DONT STAY HERE</t>
+  </si>
+  <si>
+    <t>This is the WORST hotel and I haven't even walked in the door yet. The staff is not helpful and has poor communication and customer service. They recently got new management and have NO staff. The hotel's bar and restaurants are both closed, so good luck getting a hot meal there. Also, they aren't affiliated with Southfork Ranch anymore....DON'T STAY HERE</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r330058370-Quality_Inn_Suites-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>330058370</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t>Dont stay here</t>
+  </si>
+  <si>
+    <t>We showed up to an empty hotel, it had just been sold and all but 3 of the staff were left. There was no hot water(they eventually turned it on but it was off again in the morning), the bar and restaurant are closed and there is no hot food. The place smells bad with obvious signs of water leaks in the past, poor maintenance on just about everything. They have promised a remodel but quite frankly they should close until they have done it.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r329756894-Quality_Inn_Suites-Plano_Texas.html</t>
@@ -619,9 +862,6 @@
   </si>
   <si>
     <t>This place has gone down hill.We first came here in 2010 and this hotel was great.We just came here again in 2015 and the difference from before is horrible.please do not stay here you would be better off staying somewhere else.Not worth the money we spent,came home one night earlier and lost our money,they were very rude and the room was dirty.there was no dining, bar,nothing and no other customers,very strange will never stay here again.</t>
-  </si>
-  <si>
-    <t>Makayla B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d109697-r327710700-Quality_Inn_Suites-Plano_Texas.html</t>
@@ -1141,175 +1381,161 @@
       <c r="A2" t="n">
         <v>20972</v>
       </c>
-      <c r="B2" t="n">
-        <v>19786</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>20972</v>
       </c>
-      <c r="B3" t="n">
-        <v>25779</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>20972</v>
       </c>
-      <c r="B4" t="n">
-        <v>174019</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1323,54 +1549,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>20972</v>
       </c>
-      <c r="B5" t="n">
-        <v>174020</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1384,308 +1606,284 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>20972</v>
       </c>
-      <c r="B6" t="n">
-        <v>174021</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>3</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>20972</v>
       </c>
-      <c r="B7" t="n">
-        <v>174022</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>20972</v>
       </c>
-      <c r="B8" t="n">
-        <v>174023</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>2</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>20972</v>
       </c>
-      <c r="B9" t="n">
-        <v>174024</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="O9" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>20972</v>
       </c>
-      <c r="B10" t="n">
-        <v>174025</v>
-      </c>
-      <c r="C10" t="s">
-        <v>106</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1699,183 +1897,167 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>20972</v>
       </c>
-      <c r="B11" t="n">
-        <v>68876</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="O11" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>20972</v>
       </c>
-      <c r="B12" t="n">
-        <v>174026</v>
-      </c>
-      <c r="C12" t="s">
-        <v>121</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>20972</v>
       </c>
-      <c r="B13" t="n">
-        <v>174027</v>
-      </c>
-      <c r="C13" t="s">
-        <v>128</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>127</v>
-      </c>
-      <c r="O13" t="s">
-        <v>53</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
@@ -1888,123 +2070,123 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>20972</v>
       </c>
-      <c r="B14" t="n">
-        <v>11667</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" t="s">
+        <v>123</v>
+      </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>20972</v>
       </c>
-      <c r="B15" t="n">
-        <v>174028</v>
-      </c>
-      <c r="C15" t="s">
-        <v>140</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="O15" t="s">
-        <v>104</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="n">
+        <v>123</v>
+      </c>
+      <c r="P15" t="n">
         <v>3</v>
       </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2012,61 +2194,57 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>20972</v>
       </c>
-      <c r="B16" t="n">
-        <v>44875</v>
-      </c>
-      <c r="C16" t="s">
-        <v>148</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s">
-        <v>104</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>2</v>
@@ -2077,64 +2255,60 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>20972</v>
       </c>
-      <c r="B17" t="n">
-        <v>174029</v>
-      </c>
-      <c r="C17" t="s">
-        <v>154</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2142,54 +2316,50 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>20972</v>
       </c>
-      <c r="B18" t="n">
-        <v>26740</v>
-      </c>
-      <c r="C18" t="s">
-        <v>161</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="O18" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2203,54 +2373,50 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>20972</v>
       </c>
-      <c r="B19" t="n">
-        <v>174030</v>
-      </c>
-      <c r="C19" t="s">
-        <v>167</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="O19" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2264,318 +2430,302 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>20972</v>
       </c>
-      <c r="B20" t="n">
-        <v>174031</v>
-      </c>
-      <c r="C20" t="s">
-        <v>174</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="J20" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20972</v>
       </c>
-      <c r="B21" t="n">
-        <v>174032</v>
-      </c>
-      <c r="C21" t="s">
-        <v>182</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="J21" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="L21" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" t="s">
+        <v>143</v>
+      </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>20972</v>
       </c>
-      <c r="B22" t="n">
-        <v>174033</v>
-      </c>
-      <c r="C22" t="s">
-        <v>188</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="O22" t="s">
-        <v>96</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>20972</v>
       </c>
-      <c r="B23" t="n">
-        <v>2124</v>
-      </c>
-      <c r="C23" t="s">
-        <v>195</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="J23" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="K23" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>1</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>20972</v>
       </c>
-      <c r="B24" t="n">
-        <v>174034</v>
-      </c>
-      <c r="C24" t="s">
-        <v>201</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q24" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>2</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2583,7 +2733,1081 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" t="s">
+        <v>191</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>185</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" t="s">
+        <v>195</v>
+      </c>
+      <c r="L26" t="s">
+        <v>196</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>198</v>
+      </c>
+      <c r="J27" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" t="s">
+        <v>200</v>
+      </c>
+      <c r="L27" t="s">
+        <v>201</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>202</v>
+      </c>
+      <c r="O27" t="s">
+        <v>143</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28" t="s">
         <v>206</v>
+      </c>
+      <c r="K28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L28" t="s">
+        <v>208</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>202</v>
+      </c>
+      <c r="O28" t="s">
+        <v>143</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" t="s">
+        <v>211</v>
+      </c>
+      <c r="L29" t="s">
+        <v>212</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>202</v>
+      </c>
+      <c r="O29" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>215</v>
+      </c>
+      <c r="J30" t="s">
+        <v>216</v>
+      </c>
+      <c r="K30" t="s">
+        <v>217</v>
+      </c>
+      <c r="L30" t="s">
+        <v>218</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>219</v>
+      </c>
+      <c r="O30" t="s">
+        <v>143</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>221</v>
+      </c>
+      <c r="J31" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" t="s">
+        <v>224</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>225</v>
+      </c>
+      <c r="O31" t="s">
+        <v>64</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>227</v>
+      </c>
+      <c r="J32" t="s">
+        <v>228</v>
+      </c>
+      <c r="K32" t="s">
+        <v>229</v>
+      </c>
+      <c r="L32" t="s">
+        <v>230</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>225</v>
+      </c>
+      <c r="O32" t="s">
+        <v>143</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K33" t="s">
+        <v>234</v>
+      </c>
+      <c r="L33" t="s">
+        <v>235</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>236</v>
+      </c>
+      <c r="O33" t="s">
+        <v>123</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>238</v>
+      </c>
+      <c r="J34" t="s">
+        <v>239</v>
+      </c>
+      <c r="K34" t="s">
+        <v>240</v>
+      </c>
+      <c r="L34" t="s">
+        <v>241</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>242</v>
+      </c>
+      <c r="O34" t="s">
+        <v>99</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>244</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>245</v>
+      </c>
+      <c r="J35" t="s">
+        <v>246</v>
+      </c>
+      <c r="K35" t="s">
+        <v>247</v>
+      </c>
+      <c r="L35" t="s">
+        <v>248</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>249</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>251</v>
+      </c>
+      <c r="J36" t="s">
+        <v>252</v>
+      </c>
+      <c r="K36" t="s">
+        <v>253</v>
+      </c>
+      <c r="L36" t="s">
+        <v>254</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>249</v>
+      </c>
+      <c r="O36" t="s">
+        <v>64</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>257</v>
+      </c>
+      <c r="J37" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" t="s">
+        <v>259</v>
+      </c>
+      <c r="L37" t="s">
+        <v>260</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>261</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>262</v>
+      </c>
+      <c r="J38" t="s">
+        <v>263</v>
+      </c>
+      <c r="K38" t="s">
+        <v>264</v>
+      </c>
+      <c r="L38" t="s">
+        <v>265</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>266</v>
+      </c>
+      <c r="O38" t="s">
+        <v>123</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>267</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>268</v>
+      </c>
+      <c r="J39" t="s">
+        <v>269</v>
+      </c>
+      <c r="K39" t="s">
+        <v>270</v>
+      </c>
+      <c r="L39" t="s">
+        <v>271</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>266</v>
+      </c>
+      <c r="O39" t="s">
+        <v>64</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>272</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>273</v>
+      </c>
+      <c r="J40" t="s">
+        <v>274</v>
+      </c>
+      <c r="K40" t="s">
+        <v>275</v>
+      </c>
+      <c r="L40" t="s">
+        <v>276</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>236</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>277</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>278</v>
+      </c>
+      <c r="J41" t="s">
+        <v>279</v>
+      </c>
+      <c r="K41" t="s">
+        <v>280</v>
+      </c>
+      <c r="L41" t="s">
+        <v>281</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>236</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>20972</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>282</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>283</v>
+      </c>
+      <c r="J42" t="s">
+        <v>284</v>
+      </c>
+      <c r="K42" t="s">
+        <v>285</v>
+      </c>
+      <c r="L42" t="s">
+        <v>286</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>236</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
